--- a/Beta Version/maps.xlsx
+++ b/Beta Version/maps.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Prince/Documents/GitHub/PatternMining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Prince/Documents/GitHub/PatternMining/Beta Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="7020" yWindow="2520" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,26 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,12 +171,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,8 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,10 +547,10 @@
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -503,13 +558,13 @@
       <c r="A8">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -517,10 +572,10 @@
       <c r="A9">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -528,7 +583,7 @@
       <c r="A10">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -536,7 +591,7 @@
       <c r="A11">
         <v>26</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -559,7 +614,7 @@
       <c r="A15">
         <v>22</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -567,7 +622,7 @@
       <c r="A16">
         <v>21</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -575,13 +630,13 @@
       <c r="A17">
         <v>20</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -589,7 +644,7 @@
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -617,10 +672,10 @@
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -628,10 +683,10 @@
       <c r="A24">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -639,10 +694,10 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -650,7 +705,7 @@
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -663,10 +718,10 @@
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -674,7 +729,7 @@
       <c r="A29">
         <v>8</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -682,7 +737,7 @@
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -784,6 +839,23 @@
       </c>
       <c r="V38">
         <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
